--- a/testdata/Scenario3_GymsList.xlsx
+++ b/testdata/Scenario3_GymsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
   <si>
     <t>Gyms</t>
   </si>
@@ -171,6 +171,22 @@
   </si>
   <si>
     <t>Go Fitness Gym For Ladies &amp; Gents</t>
+  </si>
+  <si>
+    <t>Star Fitness Studio</t>
+  </si>
+  <si>
+    <t>V-tone Gym and Fitness Studio</t>
+  </si>
+  <si>
+    <t>Get the List of Top
+Gyms</t>
+  </si>
+  <si>
+    <t>D'Shoolin Functional Strength &amp; therapy</t>
+  </si>
+  <si>
+    <t>Right Now Fitness</t>
   </si>
 </sst>
 </file>
@@ -215,7 +231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -228,52 +244,57 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>52</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/Scenario3_GymsList.xlsx
+++ b/testdata/Scenario3_GymsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="63">
   <si>
     <t>Gyms</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>Right Now Fitness</t>
+  </si>
+  <si>
+    <t>Gmrs Fit Zone</t>
+  </si>
+  <si>
+    <t>Lidaas Kick Boxing Academy</t>
+  </si>
+  <si>
+    <t>Energie Fitness</t>
+  </si>
+  <si>
+    <t>Sai Dwaraka's Sd Fitness Studio</t>
+  </si>
+  <si>
+    <t>Edge Of Fitness</t>
   </si>
 </sst>
 </file>
@@ -244,52 +259,52 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">

--- a/testdata/Scenario3_GymsList.xlsx
+++ b/testdata/Scenario3_GymsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
   <si>
     <t>Gyms</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Edge Of Fitness</t>
+  </si>
+  <si>
+    <t>Dhar Fitness Studio</t>
   </si>
 </sst>
 </file>
@@ -259,52 +262,52 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">

--- a/testdata/Scenario3_GymsList.xlsx
+++ b/testdata/Scenario3_GymsList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="65">
   <si>
     <t>Gyms</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Dhar Fitness Studio</t>
+  </si>
+  <si>
+    <t>Fitness Reloaded</t>
   </si>
 </sst>
 </file>
@@ -262,52 +265,52 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
